--- a/classification_metrics.xlsx
+++ b/classification_metrics.xlsx
@@ -428,13 +428,13 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>0.93</v>
+        <v>0.9633333333333334</v>
       </c>
       <c r="B2">
-        <v>0.8953731499015577</v>
+        <v>0.945015750393761</v>
       </c>
       <c r="C2">
-        <v>0.9299562226391495</v>
+        <v>0.9633324166437495</v>
       </c>
     </row>
   </sheetData>
@@ -483,10 +483,10 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D3">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -497,10 +497,10 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D4">
-        <v>87</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -543,10 +543,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.92</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="C3">
-        <v>0.9350000000000001</v>
+        <v>0.975</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -554,10 +554,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.87</v>
+        <v>0.95</v>
       </c>
       <c r="C4">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
     </row>
   </sheetData>

--- a/classification_metrics.xlsx
+++ b/classification_metrics.xlsx
@@ -428,13 +428,13 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>0.9633333333333334</v>
+        <v>0.9696666666666667</v>
       </c>
       <c r="B2">
-        <v>0.945015750393761</v>
+        <v>0.954500159083373</v>
       </c>
       <c r="C2">
-        <v>0.9633324166437495</v>
+        <v>0.9696666590833315</v>
       </c>
     </row>
   </sheetData>
@@ -466,7 +466,7 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -483,10 +483,10 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>94</v>
+        <v>955</v>
       </c>
       <c r="D3">
-        <v>6</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -497,10 +497,10 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="D4">
-        <v>95</v>
+        <v>954</v>
       </c>
     </row>
   </sheetData>
@@ -543,10 +543,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9399999999999999</v>
+        <v>0.955</v>
       </c>
       <c r="C3">
-        <v>0.975</v>
+        <v>0.977</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -554,10 +554,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.95</v>
+        <v>0.954</v>
       </c>
       <c r="C4">
-        <v>0.97</v>
+        <v>0.9775</v>
       </c>
     </row>
   </sheetData>
